--- a/vehicles_2022-07-11.xlsx
+++ b/vehicles_2022-07-11.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,13 +29,31 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="000590fc"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b30000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00007500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,11 +74,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -577,1137 +599,1137 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>PB XY 265 (Staplerhänger)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr"/>
+      <c r="X2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Z2" s="2" t="inlineStr"/>
+      <c r="AA2" s="2" t="inlineStr"/>
+      <c r="AB2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>PB-XY 406 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>PKW Anhänger mit Alubordwänden</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>2.2 to Zuladung</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>2017-03-01</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>2022-01-11T10:52:06Z</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
+      <c r="X3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="AA3" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/IMG_20171124_13304949851817.jpg</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/Thumbs/IMG_20171124_13304949851817.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>PB V 1700 (LKW Hänger)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Kröger Plattform</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>2018-03-31</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>2022-03-02T10:04:20Z</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="AA4" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/IMG_20171124_1330031963342155.jpg</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/Thumbs/IMG_20171124_1330031963342155.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>PB HM 7001 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Bien, Geseke
 Sdah Plattform</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>2018-02-01</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
+      <c r="X5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="AA5" s="2" t="inlineStr"/>
+      <c r="AB5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>PB RP 611 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>2020-02-29</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>2022-02-07T10:26:36Z</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/IMG_20171124_133617515871853.jpg</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/Thumbs/IMG_20171124_133617515871853.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>TITAN Nr. 72 254</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Internes Lager</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>Stahlbandwagen und S</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>2021-01-07</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>2021-10-27T21:29:07Z</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>1300.0</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="inlineStr"/>
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>72254</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr"/>
+      <c r="Z7" s="3" t="inlineStr"/>
+      <c r="AA7" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/Thumbs/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>TITAN Nr. 72 252</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>Lagerplatz</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>Stahlbandwagen und S</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>2021-01-07</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>2021-10-27T21:29:07Z</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>1300.0</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>72252</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr"/>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/Thumbs/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>TITAN Nr. 72 253</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Internes Lager 1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>Stahlbandwagen, Rats</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>2021-01-07</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>2021-10-27T21:29:07Z</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>1300.0</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="inlineStr"/>
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>72253</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr"/>
+      <c r="Z9" s="3" t="inlineStr"/>
+      <c r="AA9" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" s="3" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/Thumbs/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>PB VR 79 (Atego)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>LKW 7.5 to</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>2020-05-01</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>2021-10-27T21:29:07Z</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
+      <c r="X10" s="2" t="inlineStr"/>
+      <c r="Y10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/Thumbs/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>PB VR 10H (Merceds grün)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Mercedes Typ 809</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Zul. Gesamtgewicht : 7,5 to
 Nutzlast : 3,6 to</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>2017-09-01</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
+      <c r="X11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="inlineStr"/>
+      <c r="Z11" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/20171123_152451.jpg</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/Thumbs/20171123_152451.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>PB V 1300 (Container)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>MAN 26.440 Kennzeichen PB V 1300.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 15.000 KG einschl. Container.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>2007-07-02</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>2021-12-01</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>2022-01-28T07:43:26Z</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
+      <c r="W12" s="4" t="inlineStr"/>
+      <c r="X12" s="4" t="inlineStr"/>
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12" s="4" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/IMG_20180120_0953251318581889.jpg</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" s="4" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/Thumbs/IMG_20180120_0953251318581889.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>PB LH 391 (roter MB 1320)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Mercendes-Benz
 LKW offener Kasten
 Kennzeichen:PB LH 391</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
+      <c r="X13" s="2" t="inlineStr"/>
+      <c r="Y13" s="2" t="inlineStr"/>
+      <c r="Z13" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA13" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/20171123_152425.jpg</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB13" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/Thumbs/20171123_152425.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>PB- VR 1500 (blauer MB 814)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>Mercedes Benz 814 Pritschenfahrzeug</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 3, bzw mit dem Führerschein Klasse C gefahren werden.
@@ -1717,652 +1739,652 @@
 -</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>2013-05-05</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>2022-03-02T10:00:22Z</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
+      <c r="X14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/IMG_20171124_1334061711737662.jpg</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/Thumbs/IMG_20171124_1334061711737662.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>LKW</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>PB V 1400 (LKW m. Kran)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>MAN 26.440 Kennzeichen PB V 1400</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 12.000 KG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>2007-06-27</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>2022-01-28T07:44:04Z</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
+      <c r="X15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/IMG_20171124_13323798491120.jpg</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB15" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/Thumbs/IMG_20171124_13323798491120.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Lieferwagen</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>PB VR 200 (Caddy grau)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
+      <c r="X16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AA16" s="2" t="inlineStr"/>
+      <c r="AB16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>PB VR 1700 (Lemke)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Sprinter</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
         <is>
           <t>2022-02-14T07:12:11Z</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr"/>
+      <c r="AB17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>PB VR 1800 (Horst)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Mercedes Benz Sprinter</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Fphrerscheinklasse B
 Mietfahrzeug</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>DoKa</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>2018-11-30</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>2021-10-27T21:29:07Z</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
+      <c r="X18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/IMG_20171124_151517912268151.jpg</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AB18" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/Thumbs/IMG_20171124_151517912268151.jpg</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>PB VR 1600 (3-sitzer)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Sprinter offener Kasten</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2020-03-01</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
+      <c r="X19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/20171123_152438.jpg</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AB19" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/Thumbs/20171123_152438.jpg</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>PB VR 900 (Johne)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Mercedes Benz Sprinter</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Führerschein B</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Fahrzeug</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>2016-10-01</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>2020-02-29</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>2022-06-01T22:16:20Z</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
+      <c r="X20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr">
         <is>
           <t>VEHICLE</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/IMG_20171126_1517522001448822.jpg</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AB20" s="2" t="inlineStr">
         <is>
           <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/Thumbs/IMG_20171126_1517522001448822.jpg</t>
         </is>
@@ -2430,14 +2452,11 @@
           <t>PB XY 265 (Staplerhänger)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2465,7 +2484,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2483,13 +2501,11 @@
           <t>Kröger Plattform</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2518,7 +2534,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2531,14 +2546,11 @@
           <t>PB RP 611 (PKW Hänger)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2556,13 +2568,11 @@
           <t>Bauaufzug 1.500 KG Tragkraft zugel. für Personen und Lasten.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2610,7 +2620,6 @@
           <t>Bauaufzug angemietet von VERO Bulgaria EOOD</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Paderborn</t>
@@ -2647,7 +2656,6 @@
           <t>Büro Paderborn</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2675,7 +2683,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2703,7 +2710,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2721,13 +2727,11 @@
           <t>Merlo Teleskoplader schwenkbar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2756,7 +2760,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2785,7 +2788,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2819,7 +2821,6 @@
           <t>Sklad-test</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2832,14 +2833,11 @@
           <t>TITAN Nr. 72 253</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Internes Lager 1</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2857,13 +2855,11 @@
           <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Internes Lager</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2881,13 +2877,11 @@
           <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Lagerplatz</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2905,13 +2899,11 @@
           <t>LKW 7.5 to</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2924,14 +2916,11 @@
           <t>PB OJ422</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2949,13 +2938,11 @@
           <t>Mercedes  LKW offener Kasten</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2983,7 +2970,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3013,7 +2999,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3042,7 +3027,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3062,13 +3046,11 @@
 Kennzeichen:PB LH 391</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3101,7 +3083,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3131,7 +3112,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3144,14 +3124,11 @@
           <t>PB VR 200 (Caddy grau)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3164,10 +3141,6 @@
           <t>CT 0563 PP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3180,14 +3153,11 @@
           <t>PB VR 30</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Etteln</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3205,13 +3175,11 @@
           <t>Das Fahrzeug ist für den Personentransport zu den Baustellen zu nutzen</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3224,10 +3192,6 @@
           <t>PB-DY 53 (BMW Mini Cooper)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3240,7 +3204,6 @@
           <t>K M2212 (BMW Countryman Cooper)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>Leasingfahrzeug Schweiz</t>
@@ -3251,31 +3214,30 @@
           <t>Schweiz</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>PKW</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LP JL 10000</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Ford Focus ST Line</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="D35" s="5" t="inlineStr"/>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3290,10 +3252,6 @@
           <t>630 - Helm</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3322,7 +3280,6 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3340,13 +3297,11 @@
           <t>Sprinter</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3364,13 +3319,11 @@
           <t>Sprinter offener Kasten</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3398,22 +3351,15 @@
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>Bauaufzug ScaffBox Test</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>Fahrrad</t>
@@ -3424,12 +3370,8 @@
           <t>Hersteller : BULLS Typ: Copperhead EVO 2 He29 Sw54 E-M</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>LDK MZ 438</t>
@@ -3440,13 +3382,11 @@
           <t>ZANDT - offener Kasten</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>Gießen</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vehicles_2022-07-11.xlsx
+++ b/vehicles_2022-07-11.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,132 +469,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>kurzname</t>
+          <t>info</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>langtext</t>
+          <t>sort</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>info</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sort</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lagerort</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lteartikel</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>businessUnit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>vondat</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>bisdat</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>hu</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>asu</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>createdOn</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>editedOn</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>fuelConsumption</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>priceInformation</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>safetyCheckDate</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>tachographTestDate</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>gb1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ownerId</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>userId</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>externalId</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>vin</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>labelIds</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>bleGroupEnum</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>profile_picture</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>thumbPathUrl</t>
         </is>
       </c>
     </row>
@@ -609,68 +494,17 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>PB XY 265 (Staplerhänger)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="inlineStr"/>
-      <c r="X2" s="2" t="inlineStr"/>
-      <c r="Y2" s="2" t="inlineStr"/>
-      <c r="Z2" s="2" t="inlineStr"/>
-      <c r="AA2" s="2" t="inlineStr"/>
-      <c r="AB2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -685,84 +519,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>PB-XY 406 (PKW Hänger)</t>
+          <t>2.2 to Zuladung</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>PKW Anhänger mit Alubordwänden</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2.2 to Zuladung</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
           <t>2017-03-01</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>2022-01-11T10:52:06Z</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
-      <c r="X3" s="2" t="inlineStr"/>
-      <c r="Y3" s="2" t="inlineStr"/>
-      <c r="Z3" s="2" t="inlineStr"/>
-      <c r="AA3" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/IMG_20171124_13304949851817.jpg</t>
-        </is>
-      </c>
-      <c r="AB3" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/Thumbs/IMG_20171124_13304949851817.jpg</t>
         </is>
       </c>
     </row>
@@ -777,82 +544,15 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>PB V 1700 (LKW Hänger)</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Kröger Plattform</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>2018-03-31</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>2022-03-02T10:04:20Z</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
-      <c r="X4" s="2" t="inlineStr"/>
-      <c r="Y4" s="2" t="inlineStr"/>
-      <c r="Z4" s="2" t="inlineStr"/>
-      <c r="AA4" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/IMG_20171124_1330031963342155.jpg</t>
-        </is>
-      </c>
-      <c r="AB4" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/Thumbs/IMG_20171124_1330031963342155.jpg</t>
         </is>
       </c>
     </row>
@@ -869,75 +569,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>PB HM 7001 (PKW Hänger)</t>
+          <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Bien, Geseke
-Sdah Plattform</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
           <t>2018-02-01</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr"/>
-      <c r="X5" s="2" t="inlineStr"/>
-      <c r="Y5" s="2" t="inlineStr"/>
-      <c r="Z5" s="2" t="inlineStr"/>
-      <c r="AA5" s="2" t="inlineStr"/>
-      <c r="AB5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -950,78 +594,15 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>PB RP 611 (PKW Hänger)</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>2022-02-07T10:26:36Z</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
-      <c r="X6" s="2" t="inlineStr"/>
-      <c r="Y6" s="2" t="inlineStr"/>
-      <c r="Z6" s="2" t="inlineStr"/>
-      <c r="AA6" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/IMG_20171124_133617515871853.jpg</t>
-        </is>
-      </c>
-      <c r="AB6" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/Thumbs/IMG_20171124_133617515871853.jpg</t>
         </is>
       </c>
     </row>
@@ -1036,90 +617,15 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>TITAN Nr. 72 254</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Internes Lager</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Stahlbandwagen und S</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>2021-01-07</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>2021-10-27T21:29:07Z</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>1300.0</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr"/>
-      <c r="S7" s="3" t="inlineStr"/>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="inlineStr"/>
-      <c r="V7" s="3" t="inlineStr"/>
-      <c r="W7" s="3" t="inlineStr"/>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t>72254</t>
-        </is>
-      </c>
-      <c r="Y7" s="3" t="inlineStr"/>
-      <c r="Z7" s="3" t="inlineStr"/>
-      <c r="AA7" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
-        </is>
-      </c>
-      <c r="AB7" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/Thumbs/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,82 +640,15 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>TITAN Nr. 72 252</t>
-        </is>
-      </c>
+      <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Lagerplatz</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>Stahlbandwagen und S</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>2021-01-07</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>2021-12-17</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>2021-10-27T21:29:07Z</t>
-        </is>
-      </c>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>1300.0</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr"/>
-      <c r="S8" s="3" t="inlineStr"/>
-      <c r="T8" s="3" t="inlineStr"/>
-      <c r="U8" s="3" t="inlineStr"/>
-      <c r="V8" s="3" t="inlineStr"/>
-      <c r="W8" s="3" t="inlineStr"/>
-      <c r="X8" s="3" t="inlineStr">
-        <is>
-          <t>72252</t>
-        </is>
-      </c>
-      <c r="Y8" s="3" t="inlineStr"/>
-      <c r="Z8" s="3" t="inlineStr"/>
-      <c r="AA8" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
-        </is>
-      </c>
-      <c r="AB8" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/Thumbs/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
         </is>
       </c>
     </row>
@@ -1224,86 +663,15 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>TITAN Nr. 72 253</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Internes Lager 1</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Stahlbandwagen, Rats</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>2021-01-07</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>2021-10-27T21:29:07Z</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>1300.0</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr"/>
-      <c r="S9" s="3" t="inlineStr"/>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
-      <c r="W9" s="3" t="inlineStr"/>
-      <c r="X9" s="3" t="inlineStr">
-        <is>
-          <t>72253</t>
-        </is>
-      </c>
-      <c r="Y9" s="3" t="inlineStr"/>
-      <c r="Z9" s="3" t="inlineStr"/>
-      <c r="AA9" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
-        </is>
-      </c>
-      <c r="AB9" s="3" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/Thumbs/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
         </is>
       </c>
     </row>
@@ -1318,86 +686,15 @@
           <t>LKW</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>PB VR 79 (Atego)</t>
-        </is>
-      </c>
+      <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>LKW 7.5 to</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2019-06-28</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2020-05-01</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>2021-10-27T21:29:07Z</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
-      <c r="X10" s="2" t="inlineStr"/>
-      <c r="Y10" s="2" t="inlineStr"/>
-      <c r="Z10" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA10" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
-        </is>
-      </c>
-      <c r="AB10" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/Thumbs/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
         </is>
       </c>
     </row>
@@ -1414,89 +711,18 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>PB VR 10H (Merceds grün)</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Mercedes Typ 809</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
           <t>Zul. Gesamtgewicht : 7,5 to
 Nutzlast : 3,6 to</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>2017-09-01</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr"/>
-      <c r="X11" s="2" t="inlineStr"/>
-      <c r="Y11" s="2" t="inlineStr"/>
-      <c r="Z11" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA11" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/20171123_152451.jpg</t>
-        </is>
-      </c>
-      <c r="AB11" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/Thumbs/20171123_152451.jpg</t>
         </is>
       </c>
     </row>
@@ -1512,99 +738,20 @@
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>PB V 1300 (Container)</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>MAN 26.440 Kennzeichen PB V 1300.</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 15.000 KG einschl. Container.</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>2007-07-02</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t>2021-12-01</t>
-        </is>
-      </c>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-28T07:43:26Z</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA12" s="4" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/IMG_20180120_0953251318581889.jpg</t>
-        </is>
-      </c>
-      <c r="AB12" s="4" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/Thumbs/IMG_20180120_0953251318581889.jpg</t>
         </is>
       </c>
     </row>
@@ -1619,92 +766,15 @@
           <t>LKW</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>PB LH 391 (roter MB 1320)</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Mercendes-Benz
-LKW offener Kasten
-Kennzeichen:PB LH 391</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>2019-01-01</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr"/>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
-      <c r="W13" s="2" t="inlineStr"/>
-      <c r="X13" s="2" t="inlineStr"/>
-      <c r="Y13" s="2" t="inlineStr"/>
-      <c r="Z13" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA13" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/20171123_152425.jpg</t>
-        </is>
-      </c>
-      <c r="AB13" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/Thumbs/20171123_152425.jpg</t>
         </is>
       </c>
     </row>
@@ -1720,16 +790,6 @@
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>PB- VR 1500 (blauer MB 814)</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Mercedes Benz 814 Pritschenfahrzeug</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 3, bzw mit dem Führerschein Klasse C gefahren werden.
@@ -1739,79 +799,14 @@
 -</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2013-05-05</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>2022-03-02T10:00:22Z</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
-      <c r="X14" s="2" t="inlineStr"/>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA14" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/IMG_20171124_1334061711737662.jpg</t>
-        </is>
-      </c>
-      <c r="AB14" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/Thumbs/IMG_20171124_1334061711737662.jpg</t>
         </is>
       </c>
     </row>
@@ -1827,99 +822,20 @@
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>PB V 1400 (LKW m. Kran)</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>MAN 26.440 Kennzeichen PB V 1400</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 12.000 KG</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2007-06-27</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>2020-07-31</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>2022-01-28T07:44:04Z</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="X15" s="2" t="inlineStr"/>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA15" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/IMG_20171124_13323798491120.jpg</t>
-        </is>
-      </c>
-      <c r="AB15" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/Thumbs/IMG_20171124_13323798491120.jpg</t>
         </is>
       </c>
     </row>
@@ -1934,76 +850,17 @@
           <t>Lieferwagen</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>PB VR 200 (Caddy grau)</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
-      <c r="W16" s="2" t="inlineStr"/>
-      <c r="X16" s="2" t="inlineStr"/>
-      <c r="Y16" s="2" t="inlineStr"/>
-      <c r="Z16" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA16" s="2" t="inlineStr"/>
-      <c r="AB16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -2016,84 +873,17 @@
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>PB VR 1700 (Lemke)</t>
-        </is>
-      </c>
+      <c r="C17" s="2" t="inlineStr"/>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Sprinter</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>2022-02-14T07:12:11Z</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
-      <c r="W17" s="2" t="inlineStr"/>
-      <c r="X17" s="2" t="inlineStr"/>
-      <c r="Y17" s="2" t="inlineStr"/>
-      <c r="Z17" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA17" s="2" t="inlineStr"/>
-      <c r="AB17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -2108,93 +898,18 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>PB VR 1800 (Horst)</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Mercedes Benz Sprinter</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
           <t>Fphrerscheinklasse B
 Mietfahrzeug</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>DoKa</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>2018-11-30</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>2021-10-27T21:29:07Z</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
-      <c r="X18" s="2" t="inlineStr"/>
-      <c r="Y18" s="2" t="inlineStr"/>
-      <c r="Z18" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA18" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/IMG_20171124_151517912268151.jpg</t>
-        </is>
-      </c>
-      <c r="AB18" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/Thumbs/IMG_20171124_151517912268151.jpg</t>
         </is>
       </c>
     </row>
@@ -2209,86 +924,15 @@
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>PB VR 1600 (3-sitzer)</t>
-        </is>
-      </c>
+      <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Sprinter offener Kasten</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2020-03-01</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr"/>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
-      <c r="X19" s="2" t="inlineStr"/>
-      <c r="Y19" s="2" t="inlineStr"/>
-      <c r="Z19" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA19" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/20171123_152438.jpg</t>
-        </is>
-      </c>
-      <c r="AB19" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/Thumbs/20171123_152438.jpg</t>
         </is>
       </c>
     </row>
@@ -2305,88 +949,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>PB VR 900 (Johne)</t>
+          <t>Führerschein B</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Mercedes Benz Sprinter</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Führerschein B</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Paderborn</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Fahrzeug</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
           <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>2022-06-01T22:16:20Z</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Gerüstbau</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
-      <c r="X20" s="2" t="inlineStr"/>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr">
-        <is>
-          <t>VEHICLE</t>
-        </is>
-      </c>
-      <c r="AA20" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/IMG_20171126_1517522001448822.jpg</t>
-        </is>
-      </c>
-      <c r="AB20" s="2" t="inlineStr">
-        <is>
-          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/Thumbs/IMG_20171126_1517522001448822.jpg</t>
         </is>
       </c>
     </row>

--- a/vehicles_2022-07-11.xlsx
+++ b/vehicles_2022-07-11.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,132 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>kurzname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>langtext</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>info</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>sort</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lagerort</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lteartikel</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>businessUnit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>vondat</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>bisdat</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hu</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>asu</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>createdOn</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>editedOn</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>fuelConsumption</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>priceInformation</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>safetyCheckDate</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tachographTestDate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>gb1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ownerId</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>userId</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>externalId</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>vin</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>labelIds</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>bleGroupEnum</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>profile_picture</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>thumbPathUrl</t>
         </is>
       </c>
     </row>
@@ -494,17 +609,68 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PB XY 265 (Staplerhänger)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>2019-09-01</t>
         </is>
       </c>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr"/>
+      <c r="X2" s="2" t="inlineStr"/>
+      <c r="Y2" s="2" t="inlineStr"/>
+      <c r="Z2" s="2" t="inlineStr"/>
+      <c r="AA2" s="2" t="inlineStr"/>
+      <c r="AB2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -519,17 +685,84 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>PB-XY 406 (PKW Hänger)</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>PKW Anhänger mit Alubordwänden</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
           <t>2.2 to Zuladung</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>2017-03-01</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>2022-01-11T10:52:06Z</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
+      <c r="X3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Z3" s="2" t="inlineStr"/>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/IMG_20171124_13304949851817.jpg</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_21/Bilder/Thumbs/IMG_20171124_13304949851817.jpg</t>
         </is>
       </c>
     </row>
@@ -544,15 +777,82 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>PB V 1700 (LKW Hänger)</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>Kröger Plattform</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>2018-03-31</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-02T10:04:20Z</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/IMG_20171124_1330031963342155.jpg</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_22/Bilder/Thumbs/IMG_20171124_1330031963342155.jpg</t>
         </is>
       </c>
     </row>
@@ -569,19 +869,75 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>PB HM 7001 (PKW Hänger)</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Bien, Geseke
+Sdah Plattform</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>Seit 2016 bei Frank Stelzer im Einsatz</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>2018-02-01</t>
         </is>
       </c>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
+      <c r="X5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="AA5" s="2" t="inlineStr"/>
+      <c r="AB5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -594,15 +950,78 @@
           <t>Anhänger</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>PB RP 611 (PKW Hänger)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-07T10:26:36Z</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/IMG_20171124_133617515871853.jpg</t>
+        </is>
+      </c>
+      <c r="AB6" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_24/Bilder/Thumbs/IMG_20171124_133617515871853.jpg</t>
         </is>
       </c>
     </row>
@@ -617,15 +1036,90 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>TITAN Nr. 72 254</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
+          <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Internes Lager</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Stahlbandwagen und S</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>2021-10-27T21:29:07Z</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="inlineStr"/>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
+          <t>72254</t>
+        </is>
+      </c>
+      <c r="Y7" s="3" t="inlineStr"/>
+      <c r="Z7" s="3" t="inlineStr"/>
+      <c r="AA7" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
+        </is>
+      </c>
+      <c r="AB7" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_51/Bilder/Thumbs/2021-01-07_12-20-46-03f7424a-db03-4e55-8f2e-71015859d641-341-51-03f7424a-db03-4e55-8f2e-71015859d641.jpg</t>
         </is>
       </c>
     </row>
@@ -640,15 +1134,82 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>TITAN Nr. 72 252</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
+          <t>Die Kombination besteht aus dem Wagen wo das Stahlband mit gefahren wird und der Ratsche womit das Band gespannt und Abgetrennt wird.</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Lagerplatz</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Stahlbandwagen und S</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>2021-10-27T21:29:07Z</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr"/>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+      <c r="X8" s="3" t="inlineStr">
+        <is>
+          <t>72252</t>
+        </is>
+      </c>
+      <c r="Y8" s="3" t="inlineStr"/>
+      <c r="Z8" s="3" t="inlineStr"/>
+      <c r="AA8" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
+        </is>
+      </c>
+      <c r="AB8" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_49/Bilder/Thumbs/2021-01-07_11-31-20-eb9da44a-dcb1-477a-9527-cc972d8a0a0b-341-49-eb9da44a-dcb1-477a-9527-cc972d8a0a0b.jpg</t>
         </is>
       </c>
     </row>
@@ -663,15 +1224,86 @@
           <t>Hand - Werkzeug</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>TITAN Nr. 72 253</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Internes Lager 1</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Stahlbandwagen, Rats</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>2021-10-27T21:29:07Z</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="inlineStr"/>
+      <c r="X9" s="3" t="inlineStr">
+        <is>
+          <t>72253</t>
+        </is>
+      </c>
+      <c r="Y9" s="3" t="inlineStr"/>
+      <c r="Z9" s="3" t="inlineStr"/>
+      <c r="AA9" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
+        </is>
+      </c>
+      <c r="AB9" s="3" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_50/Bilder/Thumbs/2021-01-07_12-18-48-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab-341-50-f6d764d7-c783-43d7-aa67-fcad5cd8f0ab.jpg</t>
         </is>
       </c>
     </row>
@@ -686,15 +1318,86 @@
           <t>LKW</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>PB VR 79 (Atego)</t>
+        </is>
+      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>LKW 7.5 to</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2019-06-28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2021-10-27T21:29:07Z</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
+      <c r="X10" s="2" t="inlineStr"/>
+      <c r="Y10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA10" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_45/Bilder/Thumbs/2019-06-28_13-03-08--314-45-IMG_20190628_1502539200627595407225804.jpg</t>
         </is>
       </c>
     </row>
@@ -711,18 +1414,89 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>PB VR 10H (Merceds grün)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Mercedes Typ 809</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>Zul. Gesamtgewicht : 7,5 to
 Nutzlast : 3,6 to</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>2017-09-01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
+      <c r="X11" s="2" t="inlineStr"/>
+      <c r="Y11" s="2" t="inlineStr"/>
+      <c r="Z11" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA11" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/20171123_152451.jpg</t>
+        </is>
+      </c>
+      <c r="AB11" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_35/Bilder/Thumbs/20171123_152451.jpg</t>
         </is>
       </c>
     </row>
@@ -738,20 +1512,99 @@
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>PB V 1300 (Container)</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>MAN 26.440 Kennzeichen PB V 1300.</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 15.000 KG einschl. Container.</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>2007-07-02</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>2022-01-28T07:43:26Z</t>
+        </is>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
+      <c r="W12" s="4" t="inlineStr"/>
+      <c r="X12" s="4" t="inlineStr"/>
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="4" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA12" s="4" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/IMG_20180120_0953251318581889.jpg</t>
+        </is>
+      </c>
+      <c r="AB12" s="4" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_10/Bilder/Thumbs/IMG_20180120_0953251318581889.jpg</t>
         </is>
       </c>
     </row>
@@ -766,15 +1619,92 @@
           <t>LKW</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>PB LH 391 (roter MB 1320)</t>
+        </is>
+      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>Mercendes-Benz
+LKW offener Kasten
+Kennzeichen:PB LH 391</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
+      <c r="X13" s="2" t="inlineStr"/>
+      <c r="Y13" s="2" t="inlineStr"/>
+      <c r="Z13" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA13" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/20171123_152425.jpg</t>
+        </is>
+      </c>
+      <c r="AB13" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_19/Bilder/Thumbs/20171123_152425.jpg</t>
         </is>
       </c>
     </row>
@@ -790,6 +1720,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>PB- VR 1500 (blauer MB 814)</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Mercedes Benz 814 Pritschenfahrzeug</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 3, bzw mit dem Führerschein Klasse C gefahren werden.
@@ -799,14 +1739,79 @@
 -</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2013-05-05</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2022-03-02T10:00:22Z</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
+      <c r="X14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA14" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/IMG_20171124_1334061711737662.jpg</t>
+        </is>
+      </c>
+      <c r="AB14" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_15/Bilder/Thumbs/IMG_20171124_1334061711737662.jpg</t>
         </is>
       </c>
     </row>
@@ -822,20 +1827,99 @@
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>PB V 1400 (LKW m. Kran)</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>MAN 26.440 Kennzeichen PB V 1400</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Dieses Fahrzeug wurde für den Gerüstbau angeschafft.
 Es kann mit der alten Führerscheinklasse 2, bzw mit dem Führerschein Klasse C gefahren werden.
 Die Zuladung beträgt ca. 12.000 KG</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2007-06-27</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>2020-07-31</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2022-01-28T07:44:04Z</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA15" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/IMG_20171124_13323798491120.jpg</t>
+        </is>
+      </c>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_11/Bilder/Thumbs/IMG_20171124_13323798491120.jpg</t>
         </is>
       </c>
     </row>
@@ -850,17 +1934,76 @@
           <t>Lieferwagen</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>PB VR 200 (Caddy grau)</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
+      <c r="X16" s="2" t="inlineStr"/>
+      <c r="Y16" s="2" t="inlineStr"/>
+      <c r="Z16" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA16" s="2" t="inlineStr"/>
+      <c r="AB16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -873,17 +2016,84 @@
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>PB VR 1700 (Lemke)</t>
+        </is>
+      </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>Sprinter</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2022-02-14T07:12:11Z</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA17" s="2" t="inlineStr"/>
+      <c r="AB17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -898,18 +2108,93 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>PB VR 1800 (Horst)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Mercedes Benz Sprinter</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>Fphrerscheinklasse B
 Mietfahrzeug</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>DoKa</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>2018-11-30</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2021-10-27T21:29:07Z</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
+      <c r="X18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA18" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/IMG_20171124_151517912268151.jpg</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_34/Bilder/Thumbs/IMG_20171124_151517912268151.jpg</t>
         </is>
       </c>
     </row>
@@ -924,15 +2209,86 @@
           <t>Transporter</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>PB VR 1600 (3-sitzer)</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>Sprinter offener Kasten</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
+      <c r="X19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA19" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/20171123_152438.jpg</t>
+        </is>
+      </c>
+      <c r="AB19" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_31/Bilder/Thumbs/20171123_152438.jpg</t>
         </is>
       </c>
     </row>
@@ -949,17 +2305,88 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>PB VR 900 (Johne)</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Mercedes Benz Sprinter</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>Führerschein B</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Fahrzeug</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2016-10-01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2022-06-01T22:16:20Z</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>Gerüstbau</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
+      <c r="X20" s="2" t="inlineStr"/>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr">
+        <is>
+          <t>VEHICLE</t>
+        </is>
+      </c>
+      <c r="AA20" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/IMG_20171126_1517522001448822.jpg</t>
+        </is>
+      </c>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>https://api.baubuddy.de/branches/api-develop/infomaterial/Dokumente_vero_test/RNR_30/Bilder/Thumbs/IMG_20171126_1517522001448822.jpg</t>
         </is>
       </c>
     </row>
